--- a/public/template/运行时间.xlsx
+++ b/public/template/运行时间.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,30 +500,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>360</v>
       </c>
       <c r="D3" s="6">
-        <v>42767</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>360</v>
       </c>
       <c r="D4" s="6">
-        <v>42736</v>
+        <v>42767</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
